--- a/QLBANSACH.xlsx
+++ b/QLBANSACH.xlsx
@@ -1,423 +1,478 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Project Information" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Product Backlog" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Team" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Sprint Backlog" sheetId="4" r:id="rId7"/>
+    <sheet name="Project Information" sheetId="1" r:id="rId1"/>
+    <sheet name="Product Backlog" sheetId="2" r:id="rId2"/>
+    <sheet name="Team" sheetId="3" r:id="rId3"/>
+    <sheet name="Sprint Backlog" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="111">
   <si>
     <t>I.Requirements</t>
+  </si>
+  <si>
+    <t>Độc Giả</t>
+  </si>
+  <si>
+    <t>StoryID</t>
+  </si>
+  <si>
+    <t>Story Name</t>
+  </si>
+  <si>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Estimation ( Story Points )</t>
+  </si>
+  <si>
+    <t>US-1</t>
+  </si>
+  <si>
+    <t>Mua sách</t>
+  </si>
+  <si>
+    <t>"Là người dùng, tôi muốn mượn sách để có thể tiếp tục đọc sách tại nhà."</t>
+  </si>
+  <si>
+    <t>Cao</t>
+  </si>
+  <si>
+    <t>US-2</t>
+  </si>
+  <si>
+    <t>Tìm kiếm sách</t>
+  </si>
+  <si>
+    <t>"Là người dùng, tôi muốn tìm kiếm sách để có thể tìm kiếm ra loại sách cần tìm."</t>
+  </si>
+  <si>
+    <t>Trung bình</t>
+  </si>
+  <si>
+    <t>US-3</t>
+  </si>
+  <si>
+    <t>Xem thể loại sách</t>
+  </si>
+  <si>
+    <t>"Là người dùng, tôi muốn xem thể loại sách để có thể biết được các thể loại về sách."</t>
+  </si>
+  <si>
+    <t>US-4</t>
+  </si>
+  <si>
+    <t>Xem thông tin sách</t>
+  </si>
+  <si>
+    <t>"Là người dùng, tôi muốn xem thông tin sách để có thể biết thêm chi tiết về nội dung, thể loại...."</t>
+  </si>
+  <si>
+    <t>US-5</t>
+  </si>
+  <si>
+    <t>Yêu cầu hỗ trợ vấn đề về sách</t>
+  </si>
+  <si>
+    <t>"Là người dùng, tôi muốn yêu cầu hỗ trợ về sách để tìm câu trả lời các vấn đề về sách."</t>
+  </si>
+  <si>
+    <t>US-6</t>
+  </si>
+  <si>
+    <t>Thêm sách vào danh sách yêu thích</t>
+  </si>
+  <si>
+    <t>"Là người dùng, tôi muốn thêm sách vào danh sách yêu thích để có thể lưu các sách yêu thích."</t>
+  </si>
+  <si>
+    <t>US-7</t>
+  </si>
+  <si>
+    <t>Thấp</t>
+  </si>
+  <si>
+    <t>US-8</t>
+  </si>
+  <si>
+    <t>Xem lịch sử tìm kiếm sách</t>
+  </si>
+  <si>
+    <t>"Là người dùng, tôi muốn có thể xem lịch sử tìm kiếm sách của mình để phòng trường hợp bản thân quên mất".</t>
+  </si>
+  <si>
+    <t>US-9</t>
+  </si>
+  <si>
+    <t>Bình luận, đánh giá sách</t>
+  </si>
+  <si>
+    <t>US-10</t>
+  </si>
+  <si>
+    <t>Đổi mật khẩu</t>
+  </si>
+  <si>
+    <t>"Là người dùng, tôi muốn có thể thay đổi mật khẩu của tài khoản để tránh trường hợp đánh mất tài khoản."</t>
+  </si>
+  <si>
+    <t>US-11</t>
+  </si>
+  <si>
+    <t>Mô tả sách</t>
+  </si>
+  <si>
+    <t>"Là người dùng, tôi xem mô tả sách trước khi mua."</t>
+  </si>
+  <si>
+    <t>US-12</t>
+  </si>
+  <si>
+    <t>Giỏ hàng</t>
+  </si>
+  <si>
+    <t>"Là người dùng, tôi muốn thêm sách vào giỏ hàng"</t>
+  </si>
+  <si>
+    <t>US-13</t>
+  </si>
+  <si>
+    <t>Đăng ký</t>
+  </si>
+  <si>
+    <t>"Là người dùng, tôi muốn đăng ký để có thể tạo tài khoản."</t>
+  </si>
+  <si>
+    <t>Actor ( Độc giả, Admin )</t>
+  </si>
+  <si>
+    <t>Estimation (Story Points)</t>
+  </si>
+  <si>
+    <t>US-14</t>
+  </si>
+  <si>
+    <t>Đăng nhập</t>
+  </si>
+  <si>
+    <t>"Là người dùng, tôi muốn đăng nhập để có thể vào trình duyệt web."</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>US-15</t>
+  </si>
+  <si>
+    <t>Thêm, sửa, xóa sách</t>
+  </si>
+  <si>
+    <t>"Là Admin, tôi muốn thêm, sửa, xóa sách để có thể thêm sách khi đã hết sách, chỉnh sửa các thông tin sách hoặc xóa sách"</t>
+  </si>
+  <si>
+    <t>US-16</t>
+  </si>
+  <si>
+    <t>Tra cứu sách</t>
+  </si>
+  <si>
+    <t>"Là Admin, tôi muốn tra cứu sách để có thể tra cứu chi tiết từng thông tin trên sách"</t>
+  </si>
+  <si>
+    <t>US-17</t>
+  </si>
+  <si>
+    <t>Phân loại sách</t>
+  </si>
+  <si>
+    <t>"Là Admin, tôi muốn phân loại sách theo nhiều từ khóa như tên sách, thể loại để có thể sắp xếp sách gọn gàng hơn"</t>
+  </si>
+  <si>
+    <t>US-18</t>
+  </si>
+  <si>
+    <t>Xem số lượng sách</t>
+  </si>
+  <si>
+    <t>"Là Admin, tôi muốn xem số lượng sách để có thể biết được sách nào đang còn hàng"</t>
+  </si>
+  <si>
+    <t>US-19</t>
+  </si>
+  <si>
+    <t>Xem thông tin tài khoản độc giả</t>
+  </si>
+  <si>
+    <t>"Là Admin, tôi muốn xem thông tin tài khoản độc giả để có thể biết được số lượng độc giả hiện có."</t>
+  </si>
+  <si>
+    <t>US-20</t>
+  </si>
+  <si>
+    <t>Giải quyết các yêu cầu hỗ trợ</t>
+  </si>
+  <si>
+    <t>"Là Admin, tôi muốn giải quyết các yêu cầu hỗ trợ để có thể giải đáp các vấn đề mà độc giả thắc mắc."</t>
+  </si>
+  <si>
+    <t>Team Development Structure</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>DateStart</t>
+  </si>
+  <si>
+    <t>Date End</t>
+  </si>
+  <si>
+    <t>Phan Tô Trí</t>
+  </si>
+  <si>
+    <t>After 10 weeks</t>
+  </si>
+  <si>
+    <t>Nguyễn Chí Toàn</t>
+  </si>
+  <si>
+    <t>Trần Thành Đạt</t>
+  </si>
+  <si>
+    <t>E-COMMERCE PROJECT - SPRINT BACKLOG</t>
+  </si>
+  <si>
+    <t>Story ID</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Name Of Dev</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Endate</t>
+  </si>
+  <si>
+    <t>Act Start Date</t>
+  </si>
+  <si>
+    <t>ActEndate</t>
+  </si>
+  <si>
+    <t>Act Points</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Tìm kiếm sách theo thể loại</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Thanh Toán</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Quên mật khẩu</t>
+  </si>
+  <si>
+    <t>Xem chi tiết hóa đơn</t>
+  </si>
+  <si>
+    <t>"Là người dùng, tôi muốn xem thông tin hóa đơn để có thể xem chi tiết thông tin hóa đơn."</t>
+  </si>
+  <si>
+    <t>Theo dõi đơn hàng</t>
+  </si>
+  <si>
+    <t>"Là người dùng, tôi muốn theo dõi đơn hàng để biết khi nào đơn hàng sẽ tới."</t>
+  </si>
+  <si>
+    <t>US-21</t>
+  </si>
+  <si>
+    <t>Quản lý đơn hàng</t>
+  </si>
+  <si>
+    <t>"Là Admin, tôi muốn có thể quản lý đơn hàng như xem chi tiết,duyệt đơn"</t>
+  </si>
+  <si>
+    <t>Scrum Master</t>
+  </si>
+  <si>
+    <t>Team Lead</t>
+  </si>
+  <si>
+    <t>Product Owner,Dev</t>
   </si>
   <si>
     <t>Bookstore DongTrieu là nhà sách truyền thống chuyên cung cấp các dịch vụ và sản phẩm về sách, tài liệu và thiết bị liên quan đến giáo dục trong nhiều năm qua, và đã xây dựng được một lượng khách hàng ổn định.
 Để nhà sách được mọi người biết đến và cũng như phát triển kinh doanh cho thư viện, thì công ty mong muốn phát triển một hệ thống quản lý bán sách trực tuyến nhằm gia tăng phạm vi phục vụ và tương tác với khách hàng thông qua mạng Internet.
 Hệ thống mới cần đảm bảo cho khách hàng truy cập vào Website dễ dàng tra cứu sách, thông tin,  tìm kiếm thông tin về chính sách của công ty và đặt mượn sách. Khách hàng có thể lựa chọn nhận sách tại cửa hàng hoặc sử dụng dịch vụ giao sách đến tận nơi 
 Ngoài ra, hệ thống cũng cần có phân hệ để hỗ trợ công ty quản lý các hoạt động như kiểm kê số lượng sách trong kho, theo dõi các đơn đặt mượn, và tình trạng hoàn trả sách, quản lý độc giả, .v...
-Thông tin chi tiết về các chức năng có thể tham khảo thêm tại: http://www.thuvienvnlibrary.com.vn</t>
-  </si>
-  <si>
-    <t>Độc Giả</t>
-  </si>
-  <si>
-    <t>StoryID</t>
-  </si>
-  <si>
-    <t>Story Name</t>
-  </si>
-  <si>
-    <t>User Story</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Estimation ( Story Points )</t>
-  </si>
-  <si>
-    <t>US-1</t>
-  </si>
-  <si>
-    <t>Mua sách</t>
-  </si>
-  <si>
-    <t>"Là người dùng, tôi muốn mượn sách để có thể tiếp tục đọc sách tại nhà."</t>
-  </si>
-  <si>
-    <t>Cao</t>
-  </si>
-  <si>
-    <t>US-2</t>
-  </si>
-  <si>
-    <t>Tìm kiếm sách</t>
-  </si>
-  <si>
-    <t>"Là người dùng, tôi muốn tìm kiếm sách để có thể tìm kiếm ra loại sách cần tìm."</t>
-  </si>
-  <si>
-    <t>Trung bình</t>
-  </si>
-  <si>
-    <t>US-3</t>
-  </si>
-  <si>
-    <t>Xem thể loại sách</t>
-  </si>
-  <si>
-    <t>"Là người dùng, tôi muốn xem thể loại sách để có thể biết được các thể loại về sách."</t>
-  </si>
-  <si>
-    <t>US-4</t>
-  </si>
-  <si>
-    <t>Xem thông tin sách</t>
-  </si>
-  <si>
-    <t>"Là người dùng, tôi muốn xem thông tin sách để có thể biết thêm chi tiết về nội dung, thể loại...."</t>
-  </si>
-  <si>
-    <t>US-5</t>
-  </si>
-  <si>
-    <t>Yêu cầu hỗ trợ vấn đề về sách</t>
-  </si>
-  <si>
-    <t>"Là người dùng, tôi muốn yêu cầu hỗ trợ về sách để tìm câu trả lời các vấn đề về sách."</t>
-  </si>
-  <si>
-    <t>US-6</t>
-  </si>
-  <si>
-    <t>Thêm sách vào danh sách yêu thích</t>
-  </si>
-  <si>
-    <t>"Là người dùng, tôi muốn thêm sách vào danh sách yêu thích để có thể lưu các sách yêu thích."</t>
-  </si>
-  <si>
-    <t>US-7</t>
-  </si>
-  <si>
-    <t>Xem thông tin tài khoản cá nhân</t>
-  </si>
-  <si>
-    <t>"Là người dùng, tôi muốn xem thông tin tài khoản để có thể xem chi tiết thông tin cá nhân."</t>
-  </si>
-  <si>
-    <t>Thấp</t>
-  </si>
-  <si>
-    <t>US-8</t>
-  </si>
-  <si>
-    <t>Xem lịch sử tìm kiếm sách</t>
-  </si>
-  <si>
-    <t>"Là người dùng, tôi muốn có thể xem lịch sử tìm kiếm sách của mình để phòng trường hợp bản thân quên mất".</t>
-  </si>
-  <si>
-    <t>US-9</t>
-  </si>
-  <si>
-    <t>Bình luận, đánh giá sách</t>
-  </si>
-  <si>
-    <t>"Là người dùng, tôi muốn bình luận, đánh giá sách để có thể nói ra ý kiến của riêng mình."</t>
-  </si>
-  <si>
-    <t>US-10</t>
-  </si>
-  <si>
-    <t>Đổi mật khẩu</t>
-  </si>
-  <si>
-    <t>"Là người dùng, tôi muốn có thể thay đổi mật khẩu của tài khoản để tránh trường hợp đánh mất tài khoản."</t>
-  </si>
-  <si>
-    <t>US-11</t>
-  </si>
-  <si>
-    <t>Mô tả sách</t>
-  </si>
-  <si>
-    <t>"Là người dùng, tôi xem mô tả sách trước khi mua."</t>
-  </si>
-  <si>
-    <t>US-12</t>
-  </si>
-  <si>
-    <t>Giỏ hàng</t>
-  </si>
-  <si>
-    <t>"Là người dùng, tôi muốn thêm sách vào giỏ hàng"</t>
-  </si>
-  <si>
-    <t>US-13</t>
-  </si>
-  <si>
-    <t>Đăng ký</t>
-  </si>
-  <si>
-    <t>"Là người dùng, tôi muốn đăng ký để có thể tạo tài khoản."</t>
-  </si>
-  <si>
-    <t>Actor ( Độc giả, Admin )</t>
-  </si>
-  <si>
-    <t>Estimation (Story Points)</t>
-  </si>
-  <si>
-    <t>US-14</t>
-  </si>
-  <si>
-    <t>Đăng nhập</t>
-  </si>
-  <si>
-    <t>"Là người dùng, tôi muốn đăng nhập để có thể vào trình duyệt web."</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>US-15</t>
-  </si>
-  <si>
-    <t>Thêm, sửa, xóa sách</t>
-  </si>
-  <si>
-    <t>"Là Admin, tôi muốn thêm, sửa, xóa sách để có thể thêm sách khi đã hết sách, chỉnh sửa các thông tin sách hoặc xóa sách"</t>
-  </si>
-  <si>
-    <t>US-16</t>
-  </si>
-  <si>
-    <t>Tra cứu sách</t>
-  </si>
-  <si>
-    <t>"Là Admin, tôi muốn tra cứu sách để có thể tra cứu chi tiết từng thông tin trên sách"</t>
-  </si>
-  <si>
-    <t>US-17</t>
-  </si>
-  <si>
-    <t>Phân loại sách</t>
-  </si>
-  <si>
-    <t>"Là Admin, tôi muốn phân loại sách theo nhiều từ khóa như tên sách, thể loại để có thể sắp xếp sách gọn gàng hơn"</t>
-  </si>
-  <si>
-    <t>US-18</t>
-  </si>
-  <si>
-    <t>Xem số lượng sách</t>
-  </si>
-  <si>
-    <t>"Là Admin, tôi muốn xem số lượng sách để có thể biết được sách nào đang còn hàng"</t>
-  </si>
-  <si>
-    <t>US-19</t>
-  </si>
-  <si>
-    <t>Xem thông tin tài khoản độc giả</t>
-  </si>
-  <si>
-    <t>"Là Admin, tôi muốn xem thông tin tài khoản độc giả để có thể biết được số lượng độc giả hiện có."</t>
-  </si>
-  <si>
-    <t>US-20</t>
-  </si>
-  <si>
-    <t>Giải quyết các yêu cầu hỗ trợ</t>
-  </si>
-  <si>
-    <t>"Là Admin, tôi muốn giải quyết các yêu cầu hỗ trợ để có thể giải đáp các vấn đề mà độc giả thắc mắc."</t>
-  </si>
-  <si>
-    <t>Team Development Structure</t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Account</t>
-  </si>
-  <si>
-    <t>Roles</t>
-  </si>
-  <si>
-    <t>DateStart</t>
-  </si>
-  <si>
-    <t>Date End</t>
-  </si>
-  <si>
-    <t>Phan Tô Trí</t>
-  </si>
-  <si>
-    <t>After 10 weeks</t>
-  </si>
-  <si>
-    <t>Nguyễn Chí Toàn</t>
-  </si>
-  <si>
-    <t>Trần Thành Đạt</t>
-  </si>
-  <si>
-    <t>E-COMMERCE PROJECT - SPRINT BACKLOG</t>
-  </si>
-  <si>
-    <t>Story ID</t>
-  </si>
-  <si>
-    <t>Points</t>
-  </si>
-  <si>
-    <t>Name Of Dev</t>
-  </si>
-  <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>Endate</t>
-  </si>
-  <si>
-    <t>Act Start Date</t>
-  </si>
-  <si>
-    <t>ActEndate</t>
-  </si>
-  <si>
-    <t>Act Points</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>Tìm kiếm sách theo thể loại</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>Thanh Toán</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>Quên mật khẩu</t>
+Thông tin chi tiết về các chức năng có thể tham khảo thêm tại: http://www.bookstoredongtrieu.com.vn</t>
+  </si>
+  <si>
+    <t>Tri</t>
+  </si>
+  <si>
+    <t>Toan</t>
+  </si>
+  <si>
+    <t>Dat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font/>
-    <font>
-      <b/>
-      <sz val="15.0"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12.0"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.0"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -425,7 +480,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -470,80 +525,120 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
-    <border/>
+  <borders count="22">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -553,6 +648,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -565,17 +661,21 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -583,6 +683,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -597,12 +698,14 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -614,23 +717,31 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -638,135 +749,163 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="74">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="13" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="15" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="15" fillId="4" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="15" fillId="4" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="3" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="15" fillId="5" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="14" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="15" fillId="6" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="15" fillId="4" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="15" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="18" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="8" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="14" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -956,131 +1095,284 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.71"/>
+    <col min="1" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1"/>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="L12" s="6"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="L13" s="6"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="L14" s="6"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="L15" s="6"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="L16" s="6"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="5"/>
-      <c r="L17" s="6"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="L18" s="6"/>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="9"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+      <c r="B2" s="29"/>
+    </row>
+    <row r="3" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A3" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="31"/>
+    </row>
+    <row r="4" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A4" s="32"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="33"/>
+    </row>
+    <row r="5" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A5" s="32"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="33"/>
+    </row>
+    <row r="6" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A6" s="32"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="33"/>
+    </row>
+    <row r="7" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A7" s="32"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="33"/>
+    </row>
+    <row r="8" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A8" s="32"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="33"/>
+    </row>
+    <row r="9" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A9" s="32"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="33"/>
+    </row>
+    <row r="10" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A10" s="32"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="33"/>
+    </row>
+    <row r="11" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A11" s="32"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="33"/>
+    </row>
+    <row r="12" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A12" s="32"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="33"/>
+    </row>
+    <row r="13" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A13" s="32"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="33"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A14" s="32"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="33"/>
+    </row>
+    <row r="15" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A15" s="32"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="33"/>
+    </row>
+    <row r="16" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A16" s="32"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="33"/>
+    </row>
+    <row r="17" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A17" s="32"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="33"/>
+    </row>
+    <row r="18" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A18" s="32"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="33"/>
+    </row>
+    <row r="19" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A19" s="34"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="36"/>
+    </row>
+    <row r="20" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:12" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -2054,554 +2346,562 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:L19"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="8.71"/>
-    <col customWidth="1" min="3" max="3" width="24.0"/>
-    <col customWidth="1" min="4" max="4" width="32.29"/>
-    <col customWidth="1" min="5" max="5" width="78.71"/>
-    <col customWidth="1" min="6" max="6" width="17.14"/>
-    <col customWidth="1" min="7" max="7" width="15.71"/>
-    <col customWidth="1" min="8" max="26" width="8.71"/>
+    <col min="1" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" customWidth="1"/>
+    <col min="5" max="5" width="78.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1"/>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="C2" s="10" t="s">
+    <row r="1" spans="3:8" ht="14.25" customHeight="1"/>
+    <row r="2" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C2" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="38"/>
+    </row>
+    <row r="3" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="H3" s="44"/>
+    </row>
+    <row r="4" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="15"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="C4" s="16" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="G4" s="37">
+        <v>8</v>
+      </c>
+      <c r="H4" s="38"/>
+    </row>
+    <row r="5" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="19">
-        <v>8.0</v>
-      </c>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="C5" s="16" t="s">
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="F5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="G5" s="37">
+        <v>5</v>
+      </c>
+      <c r="H5" s="38"/>
+    </row>
+    <row r="6" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="F6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="37">
+        <v>5</v>
+      </c>
+      <c r="H6" s="38"/>
+    </row>
+    <row r="7" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="C7" s="16" t="s">
+      <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="E7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="37">
+        <v>8</v>
+      </c>
+      <c r="H7" s="38"/>
+    </row>
+    <row r="8" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="19">
-        <v>8.0</v>
-      </c>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="C8" s="16" t="s">
+      <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="37">
+        <v>5</v>
+      </c>
+      <c r="H8" s="38"/>
+    </row>
+    <row r="9" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="C9" s="16" t="s">
+      <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="37">
+        <v>8</v>
+      </c>
+      <c r="H9" s="38"/>
+    </row>
+    <row r="10" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="19">
-        <v>8.0</v>
-      </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="G10" s="37">
+        <v>3</v>
+      </c>
+      <c r="H10" s="38"/>
+    </row>
+    <row r="11" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="16" t="s">
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="C11" s="16" t="s">
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="37">
+        <v>5</v>
+      </c>
+      <c r="H11" s="38"/>
+    </row>
+    <row r="12" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="16" t="s">
+      <c r="D12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="37">
+        <v>3</v>
+      </c>
+      <c r="H12" s="38"/>
+    </row>
+    <row r="13" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="C12" s="16" t="s">
+      <c r="D13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="E13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="F13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="37">
+        <v>3</v>
+      </c>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="C13" s="16" t="s">
+      <c r="D14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="E14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="F14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="37">
+        <v>5</v>
+      </c>
+      <c r="H14" s="38"/>
+    </row>
+    <row r="15" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="C14" s="16" t="s">
+      <c r="D15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="E15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="F15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="37">
+        <v>5</v>
+      </c>
+      <c r="H15" s="38"/>
+    </row>
+    <row r="16" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="C15" s="16" t="s">
+      <c r="D16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="E16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="F16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="37">
+        <v>5</v>
+      </c>
+      <c r="H16" s="38"/>
+    </row>
+    <row r="17" spans="3:8" ht="14.25" customHeight="1"/>
+    <row r="18" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C18" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="C16" s="16" t="s">
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="38"/>
+    </row>
+    <row r="19" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="H19" s="38"/>
+    </row>
+    <row r="20" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="D20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="C18" s="10" t="s">
+      <c r="E20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="C19" s="22" t="s">
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="37">
+        <v>8</v>
+      </c>
+      <c r="H20" s="38"/>
+    </row>
+    <row r="21" spans="3:8" ht="14.25" customHeight="1"/>
+    <row r="22" spans="3:8" ht="14.25" customHeight="1"/>
+    <row r="23" spans="3:8" ht="14.25" customHeight="1"/>
+    <row r="24" spans="3:8" ht="14.25" customHeight="1"/>
+    <row r="25" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C25" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="38"/>
+    </row>
+    <row r="26" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C26" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="E26" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="F26" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="C20" s="16" t="s">
+      <c r="G26" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="38"/>
+    </row>
+    <row r="27" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="19">
-        <v>8.0</v>
-      </c>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="C25" s="10" t="s">
+      <c r="F27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="37">
+        <v>8</v>
+      </c>
+      <c r="H27" s="38"/>
+    </row>
+    <row r="28" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="C26" s="22" t="s">
+      <c r="D28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="37">
+        <v>5</v>
+      </c>
+      <c r="H28" s="38"/>
+    </row>
+    <row r="29" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="37">
+        <v>5</v>
+      </c>
+      <c r="H29" s="38"/>
+    </row>
+    <row r="30" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="37">
+        <v>5</v>
+      </c>
+      <c r="H30" s="38"/>
+    </row>
+    <row r="31" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="37">
         <v>3</v>
       </c>
-      <c r="D26" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="H26" s="12"/>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="C27" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="19">
-        <v>8.0</v>
-      </c>
-      <c r="H27" s="12"/>
-    </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="C28" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="H28" s="12"/>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="C29" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="C30" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="16" t="s">
+      <c r="H31" s="38"/>
+    </row>
+    <row r="32" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C32" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F30" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="H30" s="12"/>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="C31" s="16" t="s">
+      <c r="D32" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="E32" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="C32" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="H32" s="12"/>
-    </row>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="12"/>
-    </row>
-    <row r="35" ht="14.25" customHeight="1">
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="12"/>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="12"/>
-    </row>
-    <row r="37" ht="14.25" customHeight="1">
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="12"/>
-    </row>
-    <row r="38" ht="14.25" customHeight="1">
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="12"/>
-    </row>
-    <row r="39" ht="14.25" customHeight="1">
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="12"/>
-    </row>
-    <row r="40" ht="14.25" customHeight="1">
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="12"/>
-    </row>
-    <row r="41" ht="14.25" customHeight="1">
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="12"/>
-    </row>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+      <c r="F32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="37">
+        <v>3</v>
+      </c>
+      <c r="H32" s="38"/>
+    </row>
+    <row r="33" spans="3:8" ht="14.25" customHeight="1"/>
+    <row r="34" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C34" s="39"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="38"/>
+    </row>
+    <row r="35" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="38"/>
+    </row>
+    <row r="36" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C36" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="F36" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="37">
+        <v>8</v>
+      </c>
+      <c r="H36" s="38"/>
+    </row>
+    <row r="37" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="38"/>
+    </row>
+    <row r="38" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="38"/>
+    </row>
+    <row r="39" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="38"/>
+    </row>
+    <row r="40" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="38"/>
+    </row>
+    <row r="41" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="38"/>
+    </row>
+    <row r="42" spans="3:8" ht="14.25" customHeight="1"/>
+    <row r="43" spans="3:8" ht="14.25" customHeight="1"/>
+    <row r="44" spans="3:8" ht="14.25" customHeight="1"/>
+    <row r="45" spans="3:8" ht="14.25" customHeight="1"/>
+    <row r="46" spans="3:8" ht="14.25" customHeight="1"/>
+    <row r="47" spans="3:8" ht="14.25" customHeight="1"/>
+    <row r="48" spans="3:8" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -3591,162 +3891,177 @@
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="G38:H38"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="23.0"/>
-    <col customWidth="1" min="3" max="4" width="17.29"/>
-    <col customWidth="1" min="5" max="5" width="18.29"/>
-    <col customWidth="1" min="6" max="6" width="16.43"/>
-    <col customWidth="1" min="7" max="7" width="22.86"/>
-    <col customWidth="1" min="8" max="26" width="8.71"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" customWidth="1"/>
+    <col min="8" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1"/>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="25" t="s">
+    <row r="1" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A2" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-    </row>
-    <row r="3" ht="14.25" customHeight="1"/>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="27" t="s">
+      <c r="E4" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="F4" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="27" t="s">
+    </row>
+    <row r="5" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="C5" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="11">
+        <v>45548</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="27" t="s">
+    </row>
+    <row r="6" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="C6" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="11">
+        <v>45548</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29">
-        <v>45548.0</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="28">
-        <v>2.0</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29">
-        <v>45548.0</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="28">
-        <v>3.0</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29">
-        <v>45548.0</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
+      <c r="C7" s="73" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="11">
+        <v>45548</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:10" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -4735,568 +5050,604 @@
   <mergeCells count="1">
     <mergeCell ref="A2:F2"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:J6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="29.57"/>
-    <col customWidth="1" min="3" max="3" width="8.71"/>
-    <col customWidth="1" min="4" max="4" width="28.29"/>
-    <col customWidth="1" min="5" max="26" width="8.71"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A1" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+    </row>
+    <row r="2" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.25" customHeight="1">
+      <c r="B3" s="13"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A4" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="B3" s="31"/>
-      <c r="E3" s="32"/>
-      <c r="G3" s="32"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="33" t="s">
+      <c r="F4" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="G4" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15">
+        <f>SUM(C7:C11)+SUM(C13:C17)+SUM(C19:C24)</f>
+        <v>85</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A6" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="38"/>
+    </row>
+    <row r="7" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A7" s="10">
+        <v>14</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="17">
+        <v>8</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="18">
+        <v>45562</v>
+      </c>
+      <c r="F7" s="18">
+        <v>45569</v>
+      </c>
+      <c r="G7" s="18">
+        <v>45562</v>
+      </c>
+      <c r="H7" s="18">
+        <v>45569</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A8" s="10">
+        <v>13</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="17">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="18">
+        <v>45562</v>
+      </c>
+      <c r="F8" s="18">
+        <v>45569</v>
+      </c>
+      <c r="G8" s="18">
+        <v>45562</v>
+      </c>
+      <c r="H8" s="18">
+        <v>45569</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A9" s="20">
         <v>4</v>
       </c>
-      <c r="C4" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" s="33" t="s">
+      <c r="B9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="21">
+        <v>8</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="18">
+        <v>45562</v>
+      </c>
+      <c r="F9" s="18">
+        <v>45569</v>
+      </c>
+      <c r="G9" s="18">
+        <v>45562</v>
+      </c>
+      <c r="H9" s="18">
+        <v>45569</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A10" s="10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="17">
+        <v>5</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="18">
+        <v>45562</v>
+      </c>
+      <c r="F10" s="18">
+        <v>45569</v>
+      </c>
+      <c r="G10" s="18">
+        <v>45562</v>
+      </c>
+      <c r="H10" s="18">
+        <v>45569</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A11" s="10">
+        <v>3</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="C11" s="17">
+        <v>5</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="18">
+        <v>45562</v>
+      </c>
+      <c r="F11" s="18">
+        <v>45569</v>
+      </c>
+      <c r="G11" s="18">
+        <v>45562</v>
+      </c>
+      <c r="H11" s="18">
+        <v>45569</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A12" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="52"/>
+    </row>
+    <row r="13" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A13" s="10">
+        <v>1</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="23">
+        <v>5</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="18">
+        <v>45569</v>
+      </c>
+      <c r="F13" s="18">
+        <v>45576</v>
+      </c>
+      <c r="G13" s="18">
+        <v>45569</v>
+      </c>
+      <c r="H13" s="18">
+        <v>45576</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A14" s="10">
+        <v>12</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="23">
+        <v>8</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="18">
+        <v>45569</v>
+      </c>
+      <c r="F14" s="18">
+        <v>45576</v>
+      </c>
+      <c r="G14" s="18">
+        <v>45569</v>
+      </c>
+      <c r="H14" s="18">
+        <v>45576</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A15" s="10">
+        <v>7</v>
+      </c>
+      <c r="B15" s="22" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34">
-        <f>SUM(C7:C11)</f>
-        <v>31</v>
-      </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="35" t="s">
+      <c r="C15" s="23">
+        <v>8</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="18">
+        <v>45569</v>
+      </c>
+      <c r="F15" s="18">
+        <v>45576</v>
+      </c>
+      <c r="G15" s="18">
+        <v>45569</v>
+      </c>
+      <c r="H15" s="18">
+        <v>45576</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A16" s="10">
+        <v>6</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="23">
+        <v>3</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="18">
+        <v>45569</v>
+      </c>
+      <c r="F16" s="18">
+        <v>45576</v>
+      </c>
+      <c r="G16" s="18">
+        <v>45569</v>
+      </c>
+      <c r="H16" s="18">
+        <v>45576</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A17" s="10">
+        <v>11</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="23">
+        <v>5</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="18">
+        <v>45569</v>
+      </c>
+      <c r="F17" s="18">
+        <v>45576</v>
+      </c>
+      <c r="G17" s="18">
+        <v>45569</v>
+      </c>
+      <c r="H17" s="18">
+        <v>45576</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A18" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="28">
-        <v>14.0</v>
-      </c>
-      <c r="B7" s="36" t="s">
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="38"/>
+    </row>
+    <row r="19" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A19" s="24">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="27">
+        <v>3</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="18">
+        <v>45576</v>
+      </c>
+      <c r="F19" s="25">
+        <v>45583</v>
+      </c>
+      <c r="G19" s="18">
+        <v>45576</v>
+      </c>
+      <c r="H19" s="25">
+        <v>45583</v>
+      </c>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+    </row>
+    <row r="20" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A20" s="24">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="27">
+        <v>3</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="18">
+        <v>45576</v>
+      </c>
+      <c r="F20" s="25">
+        <v>45583</v>
+      </c>
+      <c r="G20" s="18">
+        <v>45576</v>
+      </c>
+      <c r="H20" s="25">
+        <v>45583</v>
+      </c>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+    </row>
+    <row r="21" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A21" s="24">
+        <v>9</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="27">
+        <v>3</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="18">
+        <v>45576</v>
+      </c>
+      <c r="F21" s="25">
+        <v>45583</v>
+      </c>
+      <c r="G21" s="18">
+        <v>45576</v>
+      </c>
+      <c r="H21" s="25">
+        <v>45583</v>
+      </c>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+    </row>
+    <row r="22" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A22" s="24">
+        <v>10</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="27">
+        <v>5</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="18">
+        <v>45576</v>
+      </c>
+      <c r="F22" s="25">
+        <v>45583</v>
+      </c>
+      <c r="G22" s="18">
+        <v>45576</v>
+      </c>
+      <c r="H22" s="25">
+        <v>45583</v>
+      </c>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+    </row>
+    <row r="23" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A23" s="54">
+        <v>15</v>
+      </c>
+      <c r="B23" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="37">
-        <v>8.0</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="38">
-        <v>45562.0</v>
-      </c>
-      <c r="F7" s="38">
-        <v>45569.0</v>
-      </c>
-      <c r="G7" s="38">
-        <v>45562.0</v>
-      </c>
-      <c r="H7" s="38">
-        <v>45569.0</v>
-      </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="28">
-        <v>13.0</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="37">
-        <v>5.0</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="38">
-        <v>45562.0</v>
-      </c>
-      <c r="F8" s="38">
-        <v>45569.0</v>
-      </c>
-      <c r="G8" s="38">
-        <v>45562.0</v>
-      </c>
-      <c r="H8" s="38">
-        <v>45569.0</v>
-      </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="40">
-        <v>4.0</v>
-      </c>
-      <c r="B9" s="28" t="s">
+      <c r="C23" s="56">
+        <v>8</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="58">
+        <v>45576</v>
+      </c>
+      <c r="F23" s="59">
+        <v>45583</v>
+      </c>
+      <c r="G23" s="58">
+        <v>45576</v>
+      </c>
+      <c r="H23" s="59">
+        <v>45583</v>
+      </c>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+    </row>
+    <row r="24" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A24" s="61">
         <v>20</v>
       </c>
-      <c r="C9" s="41">
-        <v>8.0</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="38">
-        <v>45562.0</v>
-      </c>
-      <c r="F9" s="38">
-        <v>45569.0</v>
-      </c>
-      <c r="G9" s="38">
-        <v>45562.0</v>
-      </c>
-      <c r="H9" s="38">
-        <v>45569.0</v>
-      </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="28">
-        <v>2.0</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="37">
-        <v>5.0</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="38">
-        <v>45562.0</v>
-      </c>
-      <c r="F10" s="38">
-        <v>45569.0</v>
-      </c>
-      <c r="G10" s="38">
-        <v>45562.0</v>
-      </c>
-      <c r="H10" s="38">
-        <v>45569.0</v>
-      </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="28">
-        <v>3.0</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="37">
-        <v>5.0</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="38">
-        <v>45562.0</v>
-      </c>
-      <c r="F11" s="38">
-        <v>45569.0</v>
-      </c>
-      <c r="G11" s="38">
-        <v>45562.0</v>
-      </c>
-      <c r="H11" s="38">
-        <v>45569.0</v>
-      </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="45"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="46">
-        <v>5.0</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="38">
-        <v>45569.0</v>
-      </c>
-      <c r="F13" s="38">
-        <v>45576.0</v>
-      </c>
-      <c r="G13" s="38">
-        <v>45569.0</v>
-      </c>
-      <c r="H13" s="38">
-        <v>45576.0</v>
-      </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="28">
-        <v>12.0</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="46">
-        <v>8.0</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="38">
-        <v>45569.0</v>
-      </c>
-      <c r="F14" s="38">
-        <v>45576.0</v>
-      </c>
-      <c r="G14" s="38">
-        <v>45569.0</v>
-      </c>
-      <c r="H14" s="38">
-        <v>45576.0</v>
-      </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="28">
-        <v>7.0</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="46">
-        <v>8.0</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="38">
-        <v>45569.0</v>
-      </c>
-      <c r="F15" s="38">
-        <v>45576.0</v>
-      </c>
-      <c r="G15" s="38">
-        <v>45569.0</v>
-      </c>
-      <c r="H15" s="38">
-        <v>45576.0</v>
-      </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="28">
-        <v>6.0</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="46">
-        <v>3.0</v>
-      </c>
-      <c r="D16" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="38">
-        <v>45569.0</v>
-      </c>
-      <c r="F16" s="38">
-        <v>45576.0</v>
-      </c>
-      <c r="G16" s="38">
-        <v>45569.0</v>
-      </c>
-      <c r="H16" s="38">
-        <v>45576.0</v>
-      </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="28">
-        <v>11.0</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="46">
-        <v>5.0</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="38">
-        <v>45569.0</v>
-      </c>
-      <c r="F17" s="38">
-        <v>45576.0</v>
-      </c>
-      <c r="G17" s="38">
-        <v>45569.0</v>
-      </c>
-      <c r="H17" s="38">
-        <v>45576.0</v>
-      </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="12"/>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="48">
-        <v>5.0</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="48">
-        <v>3.0</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="38">
-        <v>45576.0</v>
-      </c>
-      <c r="F19" s="49">
-        <v>45583.0</v>
-      </c>
-      <c r="G19" s="38">
-        <v>45576.0</v>
-      </c>
-      <c r="H19" s="49">
-        <v>45583.0</v>
-      </c>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="48">
-        <v>8.0</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="48">
-        <v>3.0</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="38">
-        <v>45576.0</v>
-      </c>
-      <c r="F20" s="49">
-        <v>45583.0</v>
-      </c>
-      <c r="G20" s="38">
-        <v>45576.0</v>
-      </c>
-      <c r="H20" s="49">
-        <v>45583.0</v>
-      </c>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="48">
-        <v>9.0</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="48">
-        <v>3.0</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="E21" s="38">
-        <v>45576.0</v>
-      </c>
-      <c r="F21" s="49">
-        <v>45583.0</v>
-      </c>
-      <c r="G21" s="38">
-        <v>45576.0</v>
-      </c>
-      <c r="H21" s="49">
-        <v>45583.0</v>
-      </c>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="48">
-        <v>10.0</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="48">
-        <v>5.0</v>
-      </c>
-      <c r="D22" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="38">
-        <v>45576.0</v>
-      </c>
-      <c r="F22" s="49">
-        <v>45583.0</v>
-      </c>
-      <c r="G22" s="38">
-        <v>45576.0</v>
-      </c>
-      <c r="H22" s="49">
-        <v>45583.0</v>
-      </c>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="48">
-        <v>15.0</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="48">
-        <v>8.0</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="38">
-        <v>45576.0</v>
-      </c>
-      <c r="F23" s="49">
-        <v>45583.0</v>
-      </c>
-      <c r="G23" s="38">
-        <v>45576.0</v>
-      </c>
-      <c r="H23" s="49">
-        <v>45583.0</v>
-      </c>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+      <c r="B24" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="63">
+        <v>3</v>
+      </c>
+      <c r="D24" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="65">
+        <v>45577</v>
+      </c>
+      <c r="F24" s="66">
+        <v>45584</v>
+      </c>
+      <c r="G24" s="65">
+        <v>45577</v>
+      </c>
+      <c r="H24" s="66">
+        <v>45584</v>
+      </c>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+    </row>
+    <row r="25" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:10" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -6267,16 +6618,14 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A18:J18"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A18:J18"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>